--- a/Scrum/Procesos scrum.xlsx
+++ b/Scrum/Procesos scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="18870" windowHeight="7830" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="18870" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="8. Iniciar" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="259">
   <si>
     <t>8.1 Crear la vision del proyecto</t>
   </si>
@@ -553,9 +553,6 @@
     <t>1. Scrum master o representantes del equipo</t>
   </si>
   <si>
-    <t>1. Reunion de scrum de scrums</t>
-  </si>
-  <si>
     <t>2. Cuatro preguntas por equipo</t>
   </si>
   <si>
@@ -673,14 +670,227 @@
     <t>5. Criterio de aceptación de la hist. De usuario</t>
   </si>
   <si>
-    <t>1. Reunión revisión del sprint</t>
+    <t>cuentan con conocimiento de diversos campos y son expertos</t>
+  </si>
+  <si>
+    <t>en almenos uno.</t>
+  </si>
+  <si>
+    <t>. Sentido de responsabilidad y colaboración</t>
+  </si>
+  <si>
+    <t>. Los miembros son generalistas/especialistas ya que</t>
+  </si>
+  <si>
+    <t>*resposabilida Jefe de Scrum Master</t>
+  </si>
+  <si>
+    <t>1. Reunión de scrum de scrums</t>
+  </si>
+  <si>
+    <t>. Se lleva en a cabo en intervalos predeterminados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o cuando sea requerido por el equipo, para el intercambio </t>
+  </si>
+  <si>
+    <t>de información</t>
+  </si>
+  <si>
+    <t>. Facilita la coordinacion de trabajo entre equipos</t>
+  </si>
+  <si>
+    <t>. Da oportunidad de mostrar los logros y dar retroalimentación</t>
+  </si>
+  <si>
+    <t>. Las organizaciones tienen mas colaboración</t>
+  </si>
+  <si>
+    <t>Scrum core team y stakeholders</t>
+  </si>
+  <si>
+    <t>1. Reunión revisión del sprint *</t>
+  </si>
+  <si>
+    <t>*Reunión de revision del sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">los criterios de aceptación, y se rechazan las entregas </t>
+  </si>
+  <si>
+    <t>inaceptables</t>
+  </si>
+  <si>
+    <t>. En la reunión se aceptan los entregables de acuerdo con</t>
+  </si>
+  <si>
+    <t>. Reuniones convocadas al final de cada Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. El PO y los stakeholders inspeccionan lo que se ha </t>
+  </si>
+  <si>
+    <t>completado</t>
+  </si>
+  <si>
+    <t>11.3 Retrospectiva del sprint</t>
+  </si>
+  <si>
+    <t>1. Scrum Master</t>
+  </si>
+  <si>
+    <t>2. Scrum team</t>
+  </si>
+  <si>
+    <t>3. Salidas de demostrar y validar el sprint</t>
+  </si>
+  <si>
+    <t>1. Reunión de retrospectiva del sprint</t>
+  </si>
+  <si>
+    <t>*Reunión retrospectiva del sprint</t>
+  </si>
+  <si>
+    <t>y es el paso final de un sprint</t>
+  </si>
+  <si>
+    <t>.Marco de scrum llamado "inspeccionar - adaptar"</t>
+  </si>
+  <si>
+    <t>. Se recomienda el PO pero no se requiere que asista</t>
+  </si>
+  <si>
+    <t>. Un miembro documenta las charlas y los elementos</t>
+  </si>
+  <si>
+    <t>para acciones futuras</t>
+  </si>
+  <si>
+    <t>. Los debates abarcan lo que salio mal como lo que</t>
+  </si>
+  <si>
+    <t>salio bien</t>
+  </si>
+  <si>
+    <t>Scrum master, scrum team</t>
+  </si>
+  <si>
+    <t>Cosas que el equipo tiene que seguir haciendo: mejores practicas</t>
+  </si>
+  <si>
+    <t>Cosas que el equipo necesita empezar hacer: mejoras en el proceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosas que el equipo necesita dejar de hacer: problemas </t>
+  </si>
+  <si>
+    <t>de proceso y embotellamientos</t>
+  </si>
+  <si>
+    <t>1. Mejoras acordadas susceptible a la acción</t>
+  </si>
+  <si>
+    <t>12. LANZAMIENTO</t>
+  </si>
+  <si>
+    <t>12.1 Envio de entregables</t>
+  </si>
+  <si>
+    <t>1. Product Owner</t>
+  </si>
+  <si>
+    <t>3. Entregables aceptados</t>
+  </si>
+  <si>
+    <t>4. Cronograma de planificación del lanzamiento</t>
+  </si>
+  <si>
+    <t>1. Metodos de despliegue organizativo</t>
+  </si>
+  <si>
+    <t>12.2 Retrospectiva del proyecto</t>
+  </si>
+  <si>
+    <t>1. Scrum core team(s)</t>
+  </si>
+  <si>
+    <t>jefe scrum master</t>
+  </si>
+  <si>
+    <t>socios</t>
+  </si>
+  <si>
+    <t>1. Reunión retrospectiva del proyecto</t>
+  </si>
+  <si>
+    <t>* Reunion retrospectiva del proyecto</t>
+  </si>
+  <si>
+    <t>aprobación del cliente</t>
+  </si>
+  <si>
+    <t>1. Mejoras susceptibles a la acción</t>
+  </si>
+  <si>
+    <t>2. Elementos de accion asignada y fechas de entrega</t>
+  </si>
+  <si>
+    <t>1. Acuerdo de entregables funcionales *</t>
+  </si>
+  <si>
+    <t>* Acuerdo de entregables funcionales</t>
+  </si>
+  <si>
+    <t>. Las entregas que cumplen con los criterios de aceptación</t>
+  </si>
+  <si>
+    <t>reciben un cierre de negocio formal y la aprobación por parte</t>
+  </si>
+  <si>
+    <t>del cliente o patrocinador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. El alcanzar una aceptación formal es fundamental para el </t>
+  </si>
+  <si>
+    <t>reconocimiento de ingresos.</t>
+  </si>
+  <si>
+    <t>. Determina las fomras en que la colaboracion y la eficacia</t>
+  </si>
+  <si>
+    <t>entre los equipos puede mejorar en futuros proyectos</t>
+  </si>
+  <si>
+    <t>. Discusion de aspectos positivos / negativos y posibles</t>
+  </si>
+  <si>
+    <t>oportunidades de mejora</t>
+  </si>
+  <si>
+    <t>. Reunión NO time-boxed</t>
+  </si>
+  <si>
+    <t>Jefe de Scrum master</t>
+  </si>
+  <si>
+    <t>Stakeholders</t>
+  </si>
+  <si>
+    <t>Mejoras accionables aceptadas</t>
+  </si>
+  <si>
+    <t>3. Registro de impedimientos actualizado</t>
+  </si>
+  <si>
+    <t>1. Lista priorizada de pendientes del producto actualizada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,6 +1002,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -819,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -833,12 +1051,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,10 +1372,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B3:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="H22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="5"/>
+      <c r="F37" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J42" sqref="A1:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,24 +1793,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="11"/>
+      <c r="B3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="15"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="11"/>
+      <c r="B5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -1209,122 +1829,139 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>2</v>
+      <c r="B9" t="s">
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>3</v>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>20</v>
+      <c r="F17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>25</v>
+      <c r="C18" s="3"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="I19" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="12"/>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="H22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="11"/>
+      <c r="B22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="I22" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -1333,8 +1970,8 @@
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>1</v>
+      <c r="I24" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -1344,19 +1981,19 @@
       <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" t="s">
-        <v>27</v>
+      <c r="I25" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1364,65 +2001,67 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" t="s">
-        <v>161</v>
+        <v>73</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H28" t="s">
-        <v>45</v>
+      <c r="I28" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
+        <v>93</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" t="s">
-        <v>166</v>
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
+      <c r="C32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="I32" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1430,118 +2069,75 @@
         <v>3</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>3</v>
+        <v>183</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="I34" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" t="s">
-        <v>49</v>
+      <c r="I35" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="4" t="s">
-        <v>167</v>
+      <c r="I36" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
-      <c r="F37" s="4" t="s">
-        <v>168</v>
+      <c r="I37" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>162</v>
+      <c r="I38" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>163</v>
+      <c r="I39" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F41" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F42" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F43" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F44" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F45" s="4" t="s">
-        <v>174</v>
+      <c r="I40" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I40"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,24 +2154,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="11"/>
+      <c r="B3" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="15"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="11"/>
+      <c r="B5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -1597,7 +2193,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -1605,304 +2201,578 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" t="s">
         <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
+      <c r="F15" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>257</v>
+      </c>
       <c r="C19" s="3"/>
-      <c r="I19" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="I22" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>1</v>
+      <c r="F19" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>2</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="E29" t="s">
-        <v>93</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>183</v>
-      </c>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
       <c r="I31" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I32" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I33" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I34" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="5"/>
-      <c r="I37" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I38" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="9" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:I34"/>
+  <dimension ref="A3:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="C21" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,28 +2789,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="11"/>
+      <c r="B3" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="15"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="11"/>
+      <c r="B5" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="I5" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
+      <c r="I6" s="8" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
@@ -1949,760 +2821,141 @@
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>1</v>
+      <c r="I7" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
+        <v>234</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" t="s">
+        <v>236</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>129</v>
+      <c r="F14" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>130</v>
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>131</v>
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" t="s">
+        <v>255</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I17" s="9" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
-      <c r="F19" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>134</v>
-      </c>
+      <c r="E19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-      <c r="I31" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" t="s">
-        <v>187</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I22" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I27" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I30" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-      <c r="I31" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="F19" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-      <c r="I31" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
